--- a/_site/Data/ChildCareEC.xlsx
+++ b/_site/Data/ChildCareEC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,18 @@
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,10 +38,10 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Past</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, did you use any non-parental care for your child(ren) under the age of 5? 
@@ -42,18 +50,21 @@
 • Unsure </t>
   </si>
   <si>
+    <t>Current</t>
+  </si>
+  <si>
     <t xml:space="preserve">This week, have you used any non-parental care for your child(ren) under the age of 5?  
 • Yes 
 • No 
 • Unsure </t>
   </si>
   <si>
-    <t xml:space="preserve">Do you expect your need for non-parental care for your child under the age of 5 to change in the next month?  
-• Yes, I will need more non-parental care 
-• Yes, I will need less non-parental care  
-• Maybe I will need more non-parental care   
-• Maybe I will need less non-parental care   
-• No, I expect to have the same need for non-parental care 
+    <t xml:space="preserve">Do you expect your need for non-parental care for your child under the age of 5 to change in the next month?  _x000D_
+• Yes, I will need more non-parental care _x000D_
+• Yes, I will need less non-parental care  _x000D_
+• Maybe I will need more non-parental care   _x000D_
+• Maybe I will need less non-parental care   _x000D_
+• No, I expect to have the same need for non-parental care _x000D_
 • Not Applicable </t>
   </si>
   <si>
@@ -65,6 +76,9 @@
 • At least five hours of paid care by a professional child care provider in their home   
 • Care provided entirely by the child’s parents and/or legal guardians   
 • None of the above apply   </t>
+  </si>
+  <si>
+    <t>Past</t>
   </si>
   <si>
     <t xml:space="preserve">In a typical week, before the coronavirus (COVID-19) pandemic, which of the following types of childcare did you use for your child(ren) in the age range 0-5? Select all that apply. 
@@ -405,12 +419,6 @@
   </si>
   <si>
     <t>With respect to your worries, concerns, or challenges for your children, what has or would help to alleviate these issues or make things better?</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
   </si>
 </sst>
 </file>
@@ -776,10 +784,10 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -791,451 +799,451 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="84.95">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="68.099999999999994">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="126">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="204">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="221.1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="153">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="204">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="186.95">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="135.94999999999999">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33.950000000000003">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="153">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="135.94999999999999">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="68.099999999999994">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="238">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="237.95">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="68.099999999999994">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="221.1">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="33.950000000000003">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="102">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="186.95">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="153">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="135.94999999999999">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="102">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="102">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="119.1">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="135.94999999999999">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="204">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="102">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="68.099999999999994">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="153">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="84.95">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="153">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="51">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="221.1">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="221.1">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="51">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="51">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="51">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="119.1">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="102">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="186.95">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="170.1">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="204">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="119.1">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="33.950000000000003">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="33.950000000000003">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/ChildCareEC.xlsx
+++ b/_site/Data/ChildCareEC.xlsx
@@ -1,75 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5DB5B-2080-0C43-8C0E-DDB2F63E0DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C901B9-C3AF-5540-899A-C0C8350B28B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="460" windowWidth="18300" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="22020" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Occurrence</t>
   </si>
   <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>When you think about your children, what is a hope, dream, or goal that you have for them?</t>
+  </si>
+  <si>
+    <t>In your own words, what are your biggest worries or concerns for the children in your care (for example, safety, school/preschool/health/mental health/safety in your neighborhood)?</t>
+  </si>
+  <si>
+    <t>With respect to your worries, concerns, or challenges for your children, what has or would help to alleviate these issues or make things better?</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, did you use any non-parental care for your child(ren) under the age of 5? 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • Unsure </t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t xml:space="preserve">This week, have you used any non-parental care for your child(ren) under the age of 5?  
-• Yes 
-• No 
-• Unsure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you expect your need for non-parental care for your child under the age of 5 to change in the next month?  _x000D_
-• Yes, I will need more non-parental care _x000D_
-• Yes, I will need less non-parental care  _x000D_
-• Maybe I will need more non-parental care   _x000D_
-• Maybe I will need less non-parental care   _x000D_
-• No, I expect to have the same need for non-parental care _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you expect your need for non-parental care for your child under the age of 5 to change in the next month?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, I will need more non-parental care 
+• Yes, I will need less non-parental care  
+• Maybe I will need more non-parental care   
+• Maybe I will need less non-parental care   
+• No, I expect to have the same need for non-parental care 
 • Not Applicable </t>
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, what types of childcare did you use in a typical week? Select all that apply. 
-• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten.   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten.   
 • At least five hours of paid or unpaid care by a relative, friend or neighbor in my home   
 • At least five hours of paid or unpaid care by a relative, friend or neighbor in their home    
 • At least five hours of paid care by a professional child care provider in my home   
@@ -78,22 +89,28 @@
 • None of the above apply   </t>
   </si>
   <si>
-    <t>Past</t>
-  </si>
-  <si>
     <t xml:space="preserve">In a typical week, before the coronavirus (COVID-19) pandemic, which of the following types of childcare did you use for your child(ren) in the age range 0-5? Select all that apply. 
-• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten. 
 • At least five hours of unpaid care by a relative, friend or neighbor for any child age 5 or under 
 • At least five hours of paid care by a relative, friend or neighbor for any child age 5 or under 
 • At least 5 hours of paid care from a home-based child care provider. Please include home-based care where the provider is paid to care for your child even if you are not making the payment. </t>
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, how many hours on average per week was your child care for by...[based on answers above] 
-• Answer choices 1 to “more than 100 hours” </t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Answer choices 1 to “more than 100 hours” </t>
   </si>
   <si>
     <t xml:space="preserve">[If cared for by a relative, friend or neighbor] What is the relationship of the relative, friend, or neighbor providing care to your child(ren) in the age range 0-5? Select all that apply.  
-• other parent/step parent 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• other parent/step parent 
 • sibling 15 years or older 
 • grandparent 
 • other relative 
@@ -102,14 +119,14 @@
   </si>
   <si>
     <t xml:space="preserve">Currently, which of the following types of childcare do you use for your child in the age range 0-5?  
-• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten. 
-• At least five hours of unpaid care by a relative, friend or neighbor for any child age 5 or under 
-• At least five hours of paid care by a relative, friend or neighbor for any child age 5 or under 
-• At least 5 hours of paid care from a home-based child care provider. Please include home-based care where the provider is paid to care for your child even if you are not making the payment. </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Currently, what types of childcare do you use? Select all that apply.  
-• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten. 
 • At least five hours of paid or unpaid care by a relative, friend or neighbor in my home  
 • At least five hours of paid or unpaid care by a relative, friend or neighbor in their home  
 • At least five hours of paid care by a professional child care provider in my home   
@@ -119,7 +136,10 @@
   </si>
   <si>
     <t xml:space="preserve">Please tell us the age of the person(s) who currently provide(s) childcare. Select all that apply. 
-• Someone who is 5-12 years old   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Someone who is 5-12 years old   
 • Someone who is 13-17 years old   
 • Someone who is 18-29 years old    
 • Someone who is 30-49 years old    
@@ -128,20 +148,18 @@
   </si>
   <si>
     <t xml:space="preserve">How many hours this week was your child cared for by... [based on answers above] 
-• Answer choices 1 to “more than 100 hours” </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">[If cared for by a relative, friend or neighbor] What is the relationship of the relative, friend, or neighbor currently providing care to your child(ren) in the age range 0-5? Select all that apply. 
-• other parent/step parent 
-• sibling 15 years or older 
-• grandparent 
-• other relative 
-• friend of parent 
-• neighbor </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">What is your relation to the person(s) who currently provide(s) childcare?  Select all that apply. 
-• An older child in our family (i.e., my child’s sibling)   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• An older child in our family (i.e., my child’s sibling)   
 • A sibling of myself or of my partner/spouse (i.e., my child’s aunt, uncle)   
 • A parent of myself or of my partner/spouse (i.e., my child’s grandparent)   
 • Another relative of our family   
@@ -150,13 +168,19 @@
   </si>
   <si>
     <t xml:space="preserve">Was your child(ren) attending school prior to the coronavirus (COVID-19) pandemic? 
-• Yes, Full time 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, Full time 
 • Yes, Part time 
 • No </t>
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, did you utilize any of the following for childcare? 
-• Cared for by other parent/step parent 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Cared for by other parent/step parent 
 • Cared for by sibling 15 years or older 
 • Cared for by grandparent 
 • Cared for by other relative 
@@ -171,43 +195,40 @@
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, how many hours on average per week was your child care for by...[based on answers above]  
-• Answer choices 1 to “more than 100 hours” </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, was the child care provided by [based on answers from above] paid or unpaid?  
-• Paid 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Paid 
 • Unpaid </t>
   </si>
   <si>
     <t xml:space="preserve">Currently, do you utilize any of the following for childcare? 
-• Cared for by other parent/step parent 
-• Cared for by sibling 15 years or older 
-• Cared for by grandparent 
-• Cared for by other relative 
-• Cared for by family day care provider 
-• Cared for by other non-relative 
-• Cared for by child care center 
-• Cared for by a day care that is a Head Start program 
-• Cared for in a nursery/preschool 
-• Cared for by before/after school program 
-• Child(ren) cared for themselves 
-• Other, please describe: [text entry] </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Currently, is the child care provided by [based on answers from above] paid or unpaid? .   
-• Paid 
-• Unpaid </t>
-  </si>
-  <si>
-    <t>In the next month, what are you plans for your child(rens)’s (in the age range 0-5) childcare? Select all that apply. 
-• In the next month, I plan to use the same arrangement I am using now for childcare 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the next month, what are you plans for your child(rens)’s (in the age range 0-5) childcare? Select all that apply. 
+</t>
+  </si>
+  <si>
+    <t>• In the next month, I plan to use the same arrangement I am using now for childcare 
 • In the next month, I plan to use a different arrangement for childcare 
 • In the next month, I plan to use the childcare arrangement I used prior to COVID 
 • In the next month, I do not know what I am going to do for childcare</t>
   </si>
   <si>
-    <t>What types of childcare do you expect to use? Select all that apply.  
-• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten.   
+    <t xml:space="preserve">What types of childcare do you expect to use? Select all that apply.  
+</t>
+  </si>
+  <si>
+    <t>• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten.   
 • At least five hours of paid or unpaid care by a relative, friend or neighbor in my home   
 • At least five hours of paid or unpaid care by a relative, friend or neighbor in their home   
 • At least five hours of paid care by a professional child care provider in my home   
@@ -217,7 +238,10 @@
   </si>
   <si>
     <t xml:space="preserve">Please tell us the age of the person(s) who you expect to provide childcare. Select all that apply. 
-• Someone who is 5-12 years old   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Someone who is 5-12 years old   
 • Someone who is 13-17 years old   
 • Someone who is 18-29 years old    
 • Someone who is 30-49 years old    
@@ -227,7 +251,10 @@
   </si>
   <si>
     <t xml:space="preserve">What is your relation to the person(s) who you expect to provide childcare? Select all that apply.   
-• An older child in our family (i.e., my child’s sibling)   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• An older child in our family (i.e., my child’s sibling)   
 • A sibling of myself or of my partner/spouse (i.e., my child’s aunt, uncle)   
 • A parent of myself or of my partner/spouse (i.e., my child’s grandparent)   
 • Another relative of our family   
@@ -236,21 +263,30 @@
   </si>
   <si>
     <t xml:space="preserve">If you had the option to return the same childcare you had prior to the coronavirus, are you able to do so (e.g., can you pay for child care, can you get your child there, etc.)? 
-• Yes, I would be able to   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, I would be able to   
 • No, I would not be able to   
 • I don't know  
 • Not applicable </t>
   </si>
   <si>
     <t xml:space="preserve">If you had the option to return to the same childcare you had prior to the coronavirus (COVID-19) pandemic, would you be willing to?  
-• Yes, I would be willing to   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, I would be willing to   
 • No, I would not be willing to   
 • I don't know  
 • Not applicable </t>
   </si>
   <si>
     <t xml:space="preserve">What might make it hard for you to return to the same childcare you had prior to the coronavirus (COVID-19) pandemic?  Select all that apply.  
-• I can no longer afford this option   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I can no longer afford this option   
 • I no longer think this option is safe for my child and/or my family  
 • I no longer need the same amount of child care (i.e., number of days/hours)   
 • Unsure  
@@ -258,7 +294,10 @@
   </si>
   <si>
     <t xml:space="preserve">How comfortable would you feel about returning to the same childcare you had prior to the coronavirus (COVID-19) pandemic, if the option becomes available?  Select all that apply. 
-• Not at all comfortable and very worried or anxious  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Not at all comfortable and very worried or anxious  
 • A little comfortable and also a little worried or anxious  
 • Neither comfortable nor worried or anxious   
 • Very comfortable and not at all worried or anxious  
@@ -266,7 +305,10 @@
   </si>
   <si>
     <t xml:space="preserve">What would you want to know to feel comfortable using childcare? Select all that apply.  
-• The number of children in the same space as my child  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The number of children in the same space as my child  
 • The number of adults in the same space as my child   
 • Social distancing measures   
 • Plans for cleaning the physical space   
@@ -278,14 +320,20 @@
   </si>
   <si>
     <t xml:space="preserve">Are you concerned that you may not be able to return to work because you lack appropriate childcare?  
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • Unsure 
 • Not applicable </t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, what has changed for your child(ren) regarding their education/schooling? 
-• Unable to attend classes in person 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Unable to attend classes in person 
 • Courses/Schooling offered online/remotely only, and I'm able to participate 
 • Courses/Schooling offered online/remotely, but unable to participate 
 • Courses/Schooling offered via alternative means (ex. mail, television etc.) 
@@ -295,29 +343,32 @@
   </si>
   <si>
     <t xml:space="preserve">Were you attending school prior to the coronavirus (COVID-19) pandemic? 
-• Yes, Full time  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, Full time  
 • Yes, Part time  
 • Yes, Homeschooled 
 • No </t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, what has changed regarding your education/schooling? 
-• Unable to attend classes in person 
-• Courses/Schooling offered online/remotely only, and I'm able to participate 
-• Courses/Schooling offered online/remotely, but unable to participate 
-• Courses/Schooling offered via alternative means (ex. mail, television etc.) 
-• Nothing has changed 
-• Not continuing in coursework due to pandemic 
-• Planned to not continue in coursework, regardless of pandemic </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, did you use out-of-home childcare? 
-• Yes  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes  
 • No </t>
   </si>
   <si>
     <t xml:space="preserve">What were the most important reasons you selected your pre-pandemic out-of-home childcare arrangement? Please rank the following reasons with most important at the top (1) and least important at the bottom (10) by dragging the choices. 
-• Quality 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Quality 
 • Cost 
 • Location/proximity to home or work 
 • Safety and cleanliness practices 
@@ -329,8 +380,11 @@
 • Other </t>
   </si>
   <si>
-    <t>What would you improve about your pre-pandemic out-of-home childcare arrangement? Please rank the following reasons with most important at the top (1) and least important at the bottom (10) by dragging the choices. 
-• Quality 
+    <t xml:space="preserve">What would you improve about your pre-pandemic out-of-home childcare arrangement? Please rank the following reasons with most important at the top (1) and least important at the bottom (10) by dragging the choices. 
+</t>
+  </si>
+  <si>
+    <t>• Quality 
 • Cost 
 • Location/proximity to home or work 
 • Safety and cleanliness practices 
@@ -343,22 +397,26 @@
   </si>
   <si>
     <t xml:space="preserve">Are you looking for child care now? 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No </t>
   </si>
   <si>
     <t xml:space="preserve">Are you experiencing any challenges right now in finding child care?  
-• Yes 
-• No </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Are you experiencing any challenges right now in affording child care? 
-• Yes 
-• No </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following challenges are you currently facing? Select all that apply.  
-• My regular child care program is closed 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• My regular child care program is closed 
 • I can no longer afford child care 
 • My regular child care program is open, but they no longer meet my needs 
 • I can’t find a child care arrangement where I can be confident my child will not be exposed to COVID-19 
@@ -366,14 +424,20 @@
   </si>
   <si>
     <t xml:space="preserve">Do you think the government is doing enough to support child care right now, or do you think it should be doing more in this regard?  
-• Doing enough 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Doing enough 
 • Should be doing somewhat more 
 • Should be doing a lot more 
 • Not sure </t>
   </si>
   <si>
     <t xml:space="preserve">Have you seen any bright spots (i.e., good things such as actions or policies) in regards to the way the government has tried to respond to the challenges and needs of child care during the pandemic? Select all that apply.  
-• They provided funds to keep my child care program open 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• They provided funds to keep my child care program open 
 • They paid the child care staff more 
 • They reduced or eliminated tuition or fees to make child care more affordable  
 • Closing child care to keep kids safe 
@@ -383,16 +447,22 @@
 • Other </t>
   </si>
   <si>
-    <t>In your opinion, what is still needed from the government to better address the greatest concerns for child care in your community? Select all that apply. 
-• Stabilize and maintain the supply of child care programs by providing financial assistance to providers 
+    <t xml:space="preserve">In your opinion, what is still needed from the government to better address the greatest concerns for child care in your community? Select all that apply. 
+</t>
+  </si>
+  <si>
+    <t>• Stabilize and maintain the supply of child care programs by providing financial assistance to providers 
 • Ensure more parents have access to child care by making more parents eligible for child care subsidies/assistance  
 • Increasing the amount of child care subsidies so parents don’t have to pay as much 
 • Support the well-being of early childhood educators by ensuring that they have sufficient compensation and benefits (e.g., health care) 
 • Other</t>
   </si>
   <si>
-    <t>If you are UNSURE about how you might approach child care in the coming months what would make you feel like you had a better plan? Select all that apply, 
-• Paid time off from employer  
+    <t xml:space="preserve">If you are UNSURE about how you might approach child care in the coming months what would make you feel like you had a better plan? Select all that apply, 
+</t>
+  </si>
+  <si>
+    <t>• Paid time off from employer  
 • Flexible work arrangements 
 • Financial resources for child care or other expenses  
 • Help locating available child care  
@@ -405,20 +475,14 @@
   </si>
   <si>
     <t xml:space="preserve">When you think about your family’s budget, if you have to pay for childcare, how much do you think is an “affordable” amount to spend on chidl care for all your children? 
-• More than 30% of your household income 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• More than 30% of your household income 
 • 20%-30% of your household income 
 • 10%-20% of your household income 
 • 5%-9% of your household income 
 • 1%-4% of your household income </t>
-  </si>
-  <si>
-    <t>When you think about your children, what is a hope, dream, or goal that you have for them?</t>
-  </si>
-  <si>
-    <t>In your own words, what are your biggest worries or concerns for the children in your care (for example, safety, school/preschool/health/mental health/safety in your neighborhood)?</t>
-  </si>
-  <si>
-    <t>With respect to your worries, concerns, or challenges for your children, what has or would help to alleviate these issues or make things better?</t>
   </si>
 </sst>
 </file>
@@ -783,14 +847,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -799,451 +863,543 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="51">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="84.95">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="68.099999999999994">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="102">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="238">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="221.1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="187">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="51">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="102">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="187">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="186.95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="238">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="135.94999999999999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="102">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="33.950000000000003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="102">
       <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="135.94999999999999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="136">
       <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="68.099999999999994">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="51">
       <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="237.95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="204">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51">
       <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="68.099999999999994">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="51">
       <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="221.1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="204">
       <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="33.950000000000003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34">
       <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="136">
       <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="238">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="119">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="136">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="68">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="68">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="119">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="85">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="221">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="68">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="51">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="170">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="68">
+      <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="170">
+      <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="34">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="170">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="170">
+      <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="34">
+      <c r="A39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="34">
+      <c r="A40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="34">
+      <c r="A41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="119">
+      <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="68">
+      <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="170">
+      <c r="A44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="170">
+      <c r="A45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="221">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="85">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="34">
+      <c r="A48" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="186.95">
-      <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="153">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="135.94999999999999">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="102">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="102">
-      <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="119.1">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="135.94999999999999">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="204">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="102">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="68.099999999999994">
-      <c r="A32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="153">
-      <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="84.95">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="153">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="51">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="221.1">
-      <c r="A37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="221.1">
-      <c r="A38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="51">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="51">
-      <c r="A40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="51">
-      <c r="A41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="119.1">
-      <c r="A42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="102">
-      <c r="A43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="186.95">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="170.1">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="204">
-      <c r="A46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="119.1">
-      <c r="A47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="33.950000000000003">
-      <c r="A48" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="51">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="33.950000000000003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="34">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/_site/Data/ChildCareEC.xlsx
+++ b/_site/Data/ChildCareEC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C901B9-C3AF-5540-899A-C0C8350B28B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72206855-0CDD-A841-930C-2D8D26A05E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="22020" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="42460" yWindow="3840" windowWidth="27580" windowHeight="17200" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="96">
   <si>
     <t>Question</t>
   </si>
@@ -49,23 +49,11 @@
   </si>
   <si>
     <t>Answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, did you use any non-parental care for your child(ren) under the age of 5? 
-</t>
   </si>
   <si>
     <t xml:space="preserve">• Yes 
 • No 
 • Unsure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This week, have you used any non-parental care for your child(ren) under the age of 5?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you expect your need for non-parental care for your child under the age of 5 to change in the next month?  
-</t>
   </si>
   <si>
     <t xml:space="preserve">• Yes, I will need more non-parental care 
@@ -99,15 +87,7 @@
 • At least 5 hours of paid care from a home-based child care provider. Please include home-based care where the provider is paid to care for your child even if you are not making the payment. </t>
   </si>
   <si>
-    <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, how many hours on average per week was your child care for by...[based on answers above] 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">• Answer choices 1 to “more than 100 hours” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[If cared for by a relative, friend or neighbor] What is the relationship of the relative, friend, or neighbor providing care to your child(ren) in the age range 0-5? Select all that apply.  
-</t>
   </si>
   <si>
     <t xml:space="preserve">• other parent/step parent 
@@ -148,10 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">How many hours this week was your child cared for by... [based on answers above] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[If cared for by a relative, friend or neighbor] What is the relationship of the relative, friend, or neighbor currently providing care to your child(ren) in the age range 0-5? Select all that apply. 
 </t>
   </si>
   <si>
@@ -194,10 +170,6 @@
 • Other, please describe: [text entry] </t>
   </si>
   <si>
-    <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, how many hours on average per week was your child care for by...[based on answers above]  
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prior to the coronavirus (COVID-19) Pandemic, was the child care provided by [based on answers from above] paid or unpaid?  
 </t>
   </si>
@@ -474,22 +446,326 @@
 • Other</t>
   </si>
   <si>
-    <t xml:space="preserve">When you think about your family’s budget, if you have to pay for childcare, how much do you think is an “affordable” amount to spend on chidl care for all your children? 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">• More than 30% of your household income 
 • 20%-30% of your household income 
 • 10%-20% of your household income 
 • 5%-9% of your household income 
 • 1%-4% of your household income </t>
   </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prior to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the coronavirus (COVID-19) Pandemic, did you use any non-parental care for your child(ren) under the age of 5? 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This week, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">have you used any non-parental care for your child(ren) under the age of 5?  
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Do you expect your need for non-parental care for your child under the age of 5 to change </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the next month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?  
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team modified from the National Survey of Early Care and Education (NSECE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by RAPID Team </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prior to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the coronavirus (COVID-19) Pandemic, how many hours per week on average did you utilize any type of paid or unpaid center-based care for your child(ren) in the 0-5 age range?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prior to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the coronavirus (COVID-19) Pandemic, how many hours per week on average did you utilize any type of unpaid care by a relative, friend or neighbor for your child(ren) in the 0-5 age range?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prior to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the coronavirus (COVID-19) Pandemic, how many hours per week on average did you utilize any type of paid care by a relative, friend or neighbor for your child(sen) in the 0-5 age range?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prior to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the coronavirus (COVID-19) Pandemic, how many hours per week on average did you utilize any type of paid care from a home-based child care provider for your child(ren) in the 0-5 age range?</t>
+    </r>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the relationship of the relative, friend, or neighbor who provided  care to your child(ren) in the age range 0-5? Select all that apply.  
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Currently, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">how many hours per week on average did you utilize any type of paid or unpaid center-based care for your child(ren) in the 0-5 age range?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Currently, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how many hours per week on average did you utilize any type of unpaid care by a relative, friend or neighbor for your child(ren) in the 0-5 age range?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Currently, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how many hours per week on average did you utilize any type of paid care by a relative, friend or neighbor for any child age 5 or under?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Currently,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> how many hours per week on average did you utilize any type of paid care from a home-based child care provider for your child(ren) in the 0-5 age range?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the relationship of the relative, friend, or neighbor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> providing care to your child(ren) in the age range 0-5? Select all that apply. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">When you think about your family’s budget, if you have to pay for childcare, how much do you think is an “affordable” amount to spend on childcare for all your children? 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,6 +774,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -525,11 +809,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,20 +1134,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="75" style="3" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,539 +1155,689 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51">
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="102">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="238">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="187">
-      <c r="A6" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="20" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="102">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="187">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="238">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="102">
-      <c r="A11" s="2" t="s">
+    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="102">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="136">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="51">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="204">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51">
-      <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="51">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="204">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="34">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="136">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="238">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="119">
-      <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="136">
-      <c r="A25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="68">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="68">
-      <c r="A27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="119">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="85">
-      <c r="A29" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="221">
-      <c r="A30" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="68">
-      <c r="A31" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="51">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="170">
-      <c r="A33" s="2" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="68">
-      <c r="A34" s="2" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="170">
-      <c r="A35" s="2" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34">
-      <c r="A36" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="170">
-      <c r="A37" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="170">
-      <c r="A38" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34">
-      <c r="A39" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34">
-      <c r="A40" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34">
-      <c r="A41" s="2" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="119">
-      <c r="A42" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="68">
-      <c r="A43" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="170">
-      <c r="A44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="170">
-      <c r="A45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="221">
-      <c r="A46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="85">
-      <c r="A47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="34">
-      <c r="A48" s="2" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="51">
-      <c r="A49" s="2" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="34">
-      <c r="A50" s="2" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/_site/Data/ChildCareEC.xlsx
+++ b/_site/Data/ChildCareEC.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72206855-0CDD-A841-930C-2D8D26A05E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0D0BD-C0DC-5D4C-B97A-F8DED2E96E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42460" yWindow="3840" windowWidth="27580" windowHeight="17200" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
+    <workbookView xWindow="9000" yWindow="580" windowWidth="28800" windowHeight="16700" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -765,7 +765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1137,17 +1137,17 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="75" style="3" customWidth="1"/>
     <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="51">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="51">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="204">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="409.6">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="388">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="68">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="51">
       <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="51">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="51">
       <c r="A10" s="2" t="s">
         <v>87</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="102">
       <c r="A11" s="2" t="s">
         <v>89</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="388">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="409.6">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="204">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="51">
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="51">
       <c r="A16" s="2" t="s">
         <v>91</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="51">
       <c r="A17" s="2" t="s">
         <v>92</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="51">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="102">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="221">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="51">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="372">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="51">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="372">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="34">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="34">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="238">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="409.6">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="221">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="221">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="68">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="85">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="170">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="170">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="409.6">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="68">
       <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="51">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="306">
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="68">
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="306" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="306">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="34">
       <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="272">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="272">
       <c r="A43" s="2" t="s">
         <v>61</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="34">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="34">
       <c r="A45" s="2" t="s">
         <v>65</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="34">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="204" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="204">
       <c r="A47" s="2" t="s">
         <v>67</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="102">
       <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="323">
       <c r="A49" s="2" t="s">
         <v>71</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="340">
       <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="388">
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="170">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="34">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="51">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="34">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>

--- a/_site/Data/ChildCareEC.xlsx
+++ b/_site/Data/ChildCareEC.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92405CEA-A197-D242-9403-6A1D6987B6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C5C67-2465-7348-9171-F88EF48D7338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="920" windowWidth="27240" windowHeight="16040" xr2:uid="{58C55ADA-C522-EE41-A1AA-CDC71EB56BE5}"/>
+    <workbookView xWindow="4220" yWindow="1060" windowWidth="28800" windowHeight="16420" xr2:uid="{58C55ADA-C522-EE41-A1AA-CDC71EB56BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2227C2A9-9E06-3046-A2AA-CB965C442C9F}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
